--- a/システム要件/ベトナム研修_システム要件書.xlsx
+++ b/システム要件/ベトナム研修_システム要件書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="-270" windowWidth="14400" windowHeight="12585"/>
+    <workbookView xWindow="7275" yWindow="-270" windowWidth="14400" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.システムの概要" sheetId="2" r:id="rId1"/>
@@ -378,72 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.3.1 ログイン画面</t>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.3.2 メニュー画面</t>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.3.8 予約明細画面</t>
-    <rPh sb="6" eb="8">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.3.7 予約照会画面</t>
-    <rPh sb="6" eb="8">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.3.9 予約取り消し完了画面</t>
-    <rPh sb="6" eb="8">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.3.10 エラー画面</t>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リソース選択画面</t>
     <rPh sb="4" eb="6">
       <t>センタク</t>
@@ -595,55 +529,6 @@
       <t>ジョウキョウ</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.3.3 空き状況照会画面</t>
-    <rPh sb="6" eb="10">
-      <t>アキジョウキョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.3.4 リソース選択画面</t>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.3.5 予約確認画面</t>
-    <rPh sb="6" eb="8">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.3.6 予約完了画面</t>
-    <rPh sb="6" eb="8">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1354,11 +1239,126 @@
     <t>● リソースは数日間、貸出可能である。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2.3.1 ログイン画面(login.jps)</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.2 メニュー画面(menu.jsp)</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.3 空き状況照会画面(availableResources.jsp)</t>
+    <rPh sb="6" eb="10">
+      <t>アキジョウキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.4 リソース選択画面(reserve.jsp)</t>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.5 予約確認画面(confirm.jsp)</t>
+    <rPh sb="6" eb="8">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.6 予約完了画面(complete.jsp)</t>
+    <rPh sb="6" eb="8">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.7 予約照会画面(refer.jsp)</t>
+    <rPh sb="6" eb="8">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.8 予約明細画面(referDetail.jsp)</t>
+    <rPh sb="6" eb="8">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.9 予約取り消し完了画面(cancel.jsp)</t>
+    <rPh sb="6" eb="8">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.10 エラー画面(Error.jsp)</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1766,6 +1766,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1796,102 +1892,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1901,6 +1901,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5722,16 +5725,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>208359</xdr:colOff>
-      <xdr:row>393</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1294</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>197091</xdr:colOff>
       <xdr:row>413</xdr:row>
-      <xdr:rowOff>73106</xdr:rowOff>
+      <xdr:rowOff>15128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5748,8 +5751,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="208359" y="66198750"/>
-          <a:ext cx="4572638" cy="3429479"/>
+          <a:off x="208359" y="67329326"/>
+          <a:ext cx="4544167" cy="3452411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6025,7 +6028,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6067,7 +6070,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6102,7 +6105,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6313,7 +6316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AH43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
@@ -6324,7 +6327,7 @@
   <sheetData>
     <row r="4" spans="2:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -6358,13 +6361,13 @@
     </row>
     <row r="6" spans="2:32" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="2:32" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="18" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -6403,7 +6406,7 @@
     </row>
     <row r="11" spans="2:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -6441,7 +6444,7 @@
     </row>
     <row r="13" spans="2:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -6479,7 +6482,7 @@
     </row>
     <row r="15" spans="2:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -6514,7 +6517,7 @@
     </row>
     <row r="16" spans="2:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -6585,7 +6588,7 @@
     </row>
     <row r="19" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:34" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6626,13 +6629,13 @@
     </row>
     <row r="21" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6640,53 +6643,53 @@
     </row>
     <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6694,30 +6697,30 @@
     </row>
     <row r="39" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6739,7 +6742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG438"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A426" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6800,38 +6803,38 @@
     </row>
     <row r="4" spans="1:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
     </row>
     <row r="5" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
@@ -6976,410 +6979,410 @@
     </row>
     <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="53"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="41"/>
     </row>
     <row r="13" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="48"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="26"/>
     </row>
     <row r="14" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="41"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="24"/>
     </row>
     <row r="15" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="58"/>
+      <c r="B15" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="29"/>
     </row>
     <row r="16" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="41"/>
+      <c r="B16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="24"/>
     </row>
     <row r="17" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="48"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="26"/>
     </row>
     <row r="18" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="41"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="24"/>
     </row>
     <row r="19" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="48"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="26"/>
     </row>
     <row r="20" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="47" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="48"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="26"/>
     </row>
     <row r="21" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="41"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="24"/>
     </row>
     <row r="22" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="46"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="37"/>
     </row>
     <row r="23" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
@@ -7698,10 +7701,10 @@
         <v>6</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="X69" s="3" t="s">
         <v>8</v>
@@ -7772,72 +7775,72 @@
       <c r="AA85" s="3"/>
     </row>
     <row r="86" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="55"/>
-      <c r="P86" s="55"/>
-      <c r="Q86" s="55"/>
-      <c r="R86" s="55"/>
-      <c r="S86" s="55"/>
-      <c r="T86" s="55"/>
-      <c r="U86" s="55"/>
-      <c r="V86" s="55"/>
-      <c r="W86" s="55"/>
-      <c r="X86" s="55"/>
-      <c r="Y86" s="55"/>
-      <c r="Z86" s="55"/>
-      <c r="AA86" s="55"/>
-      <c r="AB86" s="55"/>
-      <c r="AC86" s="55"/>
-      <c r="AD86" s="55"/>
-      <c r="AE86" s="55"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19"/>
+      <c r="AE86" s="19"/>
     </row>
     <row r="87" spans="2:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="37"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
-      <c r="Q87" s="37"/>
-      <c r="R87" s="37"/>
-      <c r="S87" s="37"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="37"/>
-      <c r="X87" s="37"/>
-      <c r="Y87" s="37"/>
-      <c r="Z87" s="37"/>
-      <c r="AA87" s="37"/>
-      <c r="AB87" s="37"/>
-      <c r="AC87" s="37"/>
-      <c r="AD87" s="37"/>
-      <c r="AE87" s="37"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="33"/>
+      <c r="S87" s="33"/>
+      <c r="T87" s="33"/>
+      <c r="U87" s="33"/>
+      <c r="V87" s="33"/>
+      <c r="W87" s="33"/>
+      <c r="X87" s="33"/>
+      <c r="Y87" s="33"/>
+      <c r="Z87" s="33"/>
+      <c r="AA87" s="33"/>
+      <c r="AB87" s="33"/>
+      <c r="AC87" s="33"/>
+      <c r="AD87" s="33"/>
+      <c r="AE87" s="33"/>
     </row>
     <row r="88" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B88" s="9"/>
@@ -7878,7 +7881,7 @@
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B124" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -7961,7 +7964,7 @@
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B151" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8056,7 +8059,7 @@
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B182" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8139,7 +8142,7 @@
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B209" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="210" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8243,7 +8246,7 @@
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B243" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="244" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8326,7 +8329,7 @@
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B270" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8430,7 +8433,7 @@
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B304" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="305" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8510,7 +8513,7 @@
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B331" s="1" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="332" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8560,7 +8563,7 @@
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B365" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="366" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8643,7 +8646,7 @@
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B392" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="393" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8661,304 +8664,311 @@
     </row>
     <row r="430" spans="2:31" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="431" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B431" s="33" t="s">
+      <c r="B431" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C431" s="44"/>
+      <c r="D431" s="44"/>
+      <c r="E431" s="44"/>
+      <c r="F431" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G431" s="45"/>
+      <c r="H431" s="45"/>
+      <c r="I431" s="45"/>
+      <c r="J431" s="45"/>
+      <c r="K431" s="45"/>
+      <c r="L431" s="45"/>
+      <c r="M431" s="45"/>
+      <c r="N431" s="45"/>
+      <c r="O431" s="45"/>
+      <c r="P431" s="45"/>
+      <c r="Q431" s="45"/>
+      <c r="R431" s="45"/>
+      <c r="S431" s="45"/>
+      <c r="T431" s="45"/>
+      <c r="U431" s="45"/>
+      <c r="V431" s="45"/>
+      <c r="W431" s="45"/>
+      <c r="X431" s="45"/>
+      <c r="Y431" s="45"/>
+      <c r="Z431" s="45"/>
+      <c r="AA431" s="45"/>
+      <c r="AB431" s="45"/>
+      <c r="AC431" s="45"/>
+      <c r="AD431" s="45"/>
+      <c r="AE431" s="46"/>
+    </row>
+    <row r="432" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B432" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C432" s="50"/>
+      <c r="D432" s="50"/>
+      <c r="E432" s="50"/>
+      <c r="F432" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G432" s="47"/>
+      <c r="H432" s="47"/>
+      <c r="I432" s="47"/>
+      <c r="J432" s="47"/>
+      <c r="K432" s="47"/>
+      <c r="L432" s="47"/>
+      <c r="M432" s="47"/>
+      <c r="N432" s="47"/>
+      <c r="O432" s="47"/>
+      <c r="P432" s="47"/>
+      <c r="Q432" s="47"/>
+      <c r="R432" s="47"/>
+      <c r="S432" s="47"/>
+      <c r="T432" s="47"/>
+      <c r="U432" s="47"/>
+      <c r="V432" s="47"/>
+      <c r="W432" s="47"/>
+      <c r="X432" s="47"/>
+      <c r="Y432" s="47"/>
+      <c r="Z432" s="47"/>
+      <c r="AA432" s="47"/>
+      <c r="AB432" s="47"/>
+      <c r="AC432" s="47"/>
+      <c r="AD432" s="47"/>
+      <c r="AE432" s="48"/>
+    </row>
+    <row r="433" spans="2:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B433" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C433" s="50"/>
+      <c r="D433" s="50"/>
+      <c r="E433" s="50"/>
+      <c r="F433" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G433" s="47"/>
+      <c r="H433" s="47"/>
+      <c r="I433" s="47"/>
+      <c r="J433" s="47"/>
+      <c r="K433" s="47"/>
+      <c r="L433" s="47"/>
+      <c r="M433" s="47"/>
+      <c r="N433" s="47"/>
+      <c r="O433" s="47"/>
+      <c r="P433" s="47"/>
+      <c r="Q433" s="47"/>
+      <c r="R433" s="47"/>
+      <c r="S433" s="47"/>
+      <c r="T433" s="47"/>
+      <c r="U433" s="47"/>
+      <c r="V433" s="47"/>
+      <c r="W433" s="47"/>
+      <c r="X433" s="47"/>
+      <c r="Y433" s="47"/>
+      <c r="Z433" s="47"/>
+      <c r="AA433" s="47"/>
+      <c r="AB433" s="47"/>
+      <c r="AC433" s="47"/>
+      <c r="AD433" s="47"/>
+      <c r="AE433" s="48"/>
+    </row>
+    <row r="434" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B434" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C434" s="50"/>
+      <c r="D434" s="50"/>
+      <c r="E434" s="50"/>
+      <c r="F434" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G434" s="47"/>
+      <c r="H434" s="47"/>
+      <c r="I434" s="47"/>
+      <c r="J434" s="47"/>
+      <c r="K434" s="47"/>
+      <c r="L434" s="47"/>
+      <c r="M434" s="47"/>
+      <c r="N434" s="47"/>
+      <c r="O434" s="47"/>
+      <c r="P434" s="47"/>
+      <c r="Q434" s="47"/>
+      <c r="R434" s="47"/>
+      <c r="S434" s="47"/>
+      <c r="T434" s="47"/>
+      <c r="U434" s="47"/>
+      <c r="V434" s="47"/>
+      <c r="W434" s="47"/>
+      <c r="X434" s="47"/>
+      <c r="Y434" s="47"/>
+      <c r="Z434" s="47"/>
+      <c r="AA434" s="47"/>
+      <c r="AB434" s="47"/>
+      <c r="AC434" s="47"/>
+      <c r="AD434" s="47"/>
+      <c r="AE434" s="48"/>
+    </row>
+    <row r="435" spans="2:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B435" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C435" s="50"/>
+      <c r="D435" s="50"/>
+      <c r="E435" s="50"/>
+      <c r="F435" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G435" s="47"/>
+      <c r="H435" s="47"/>
+      <c r="I435" s="47"/>
+      <c r="J435" s="47"/>
+      <c r="K435" s="47"/>
+      <c r="L435" s="47"/>
+      <c r="M435" s="47"/>
+      <c r="N435" s="47"/>
+      <c r="O435" s="47"/>
+      <c r="P435" s="47"/>
+      <c r="Q435" s="47"/>
+      <c r="R435" s="47"/>
+      <c r="S435" s="47"/>
+      <c r="T435" s="47"/>
+      <c r="U435" s="47"/>
+      <c r="V435" s="47"/>
+      <c r="W435" s="47"/>
+      <c r="X435" s="47"/>
+      <c r="Y435" s="47"/>
+      <c r="Z435" s="47"/>
+      <c r="AA435" s="47"/>
+      <c r="AB435" s="47"/>
+      <c r="AC435" s="47"/>
+      <c r="AD435" s="47"/>
+      <c r="AE435" s="48"/>
+    </row>
+    <row r="436" spans="2:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B436" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C436" s="50"/>
+      <c r="D436" s="50"/>
+      <c r="E436" s="50"/>
+      <c r="F436" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G436" s="47"/>
+      <c r="H436" s="47"/>
+      <c r="I436" s="47"/>
+      <c r="J436" s="47"/>
+      <c r="K436" s="47"/>
+      <c r="L436" s="47"/>
+      <c r="M436" s="47"/>
+      <c r="N436" s="47"/>
+      <c r="O436" s="47"/>
+      <c r="P436" s="47"/>
+      <c r="Q436" s="47"/>
+      <c r="R436" s="47"/>
+      <c r="S436" s="47"/>
+      <c r="T436" s="47"/>
+      <c r="U436" s="47"/>
+      <c r="V436" s="47"/>
+      <c r="W436" s="47"/>
+      <c r="X436" s="47"/>
+      <c r="Y436" s="47"/>
+      <c r="Z436" s="47"/>
+      <c r="AA436" s="47"/>
+      <c r="AB436" s="47"/>
+      <c r="AC436" s="47"/>
+      <c r="AD436" s="47"/>
+      <c r="AE436" s="48"/>
+    </row>
+    <row r="437" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B437" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C437" s="56"/>
+      <c r="D437" s="56"/>
+      <c r="E437" s="57"/>
+      <c r="F437" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G437" s="59"/>
+      <c r="H437" s="59"/>
+      <c r="I437" s="59"/>
+      <c r="J437" s="59"/>
+      <c r="K437" s="59"/>
+      <c r="L437" s="59"/>
+      <c r="M437" s="59"/>
+      <c r="N437" s="59"/>
+      <c r="O437" s="59"/>
+      <c r="P437" s="59"/>
+      <c r="Q437" s="59"/>
+      <c r="R437" s="59"/>
+      <c r="S437" s="59"/>
+      <c r="T437" s="59"/>
+      <c r="U437" s="59"/>
+      <c r="V437" s="59"/>
+      <c r="W437" s="59"/>
+      <c r="X437" s="59"/>
+      <c r="Y437" s="59"/>
+      <c r="Z437" s="59"/>
+      <c r="AA437" s="59"/>
+      <c r="AB437" s="59"/>
+      <c r="AC437" s="59"/>
+      <c r="AD437" s="59"/>
+      <c r="AE437" s="60"/>
+    </row>
+    <row r="438" spans="2:31" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B438" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C438" s="52"/>
+      <c r="D438" s="52"/>
+      <c r="E438" s="52"/>
+      <c r="F438" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C431" s="34"/>
-      <c r="D431" s="34"/>
-      <c r="E431" s="34"/>
-      <c r="F431" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G431" s="35"/>
-      <c r="H431" s="35"/>
-      <c r="I431" s="35"/>
-      <c r="J431" s="35"/>
-      <c r="K431" s="35"/>
-      <c r="L431" s="35"/>
-      <c r="M431" s="35"/>
-      <c r="N431" s="35"/>
-      <c r="O431" s="35"/>
-      <c r="P431" s="35"/>
-      <c r="Q431" s="35"/>
-      <c r="R431" s="35"/>
-      <c r="S431" s="35"/>
-      <c r="T431" s="35"/>
-      <c r="U431" s="35"/>
-      <c r="V431" s="35"/>
-      <c r="W431" s="35"/>
-      <c r="X431" s="35"/>
-      <c r="Y431" s="35"/>
-      <c r="Z431" s="35"/>
-      <c r="AA431" s="35"/>
-      <c r="AB431" s="35"/>
-      <c r="AC431" s="35"/>
-      <c r="AD431" s="35"/>
-      <c r="AE431" s="36"/>
-    </row>
-    <row r="432" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B432" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C432" s="30"/>
-      <c r="D432" s="30"/>
-      <c r="E432" s="30"/>
-      <c r="F432" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="G432" s="31"/>
-      <c r="H432" s="31"/>
-      <c r="I432" s="31"/>
-      <c r="J432" s="31"/>
-      <c r="K432" s="31"/>
-      <c r="L432" s="31"/>
-      <c r="M432" s="31"/>
-      <c r="N432" s="31"/>
-      <c r="O432" s="31"/>
-      <c r="P432" s="31"/>
-      <c r="Q432" s="31"/>
-      <c r="R432" s="31"/>
-      <c r="S432" s="31"/>
-      <c r="T432" s="31"/>
-      <c r="U432" s="31"/>
-      <c r="V432" s="31"/>
-      <c r="W432" s="31"/>
-      <c r="X432" s="31"/>
-      <c r="Y432" s="31"/>
-      <c r="Z432" s="31"/>
-      <c r="AA432" s="31"/>
-      <c r="AB432" s="31"/>
-      <c r="AC432" s="31"/>
-      <c r="AD432" s="31"/>
-      <c r="AE432" s="32"/>
-    </row>
-    <row r="433" spans="2:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B433" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C433" s="30"/>
-      <c r="D433" s="30"/>
-      <c r="E433" s="30"/>
-      <c r="F433" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G433" s="31"/>
-      <c r="H433" s="31"/>
-      <c r="I433" s="31"/>
-      <c r="J433" s="31"/>
-      <c r="K433" s="31"/>
-      <c r="L433" s="31"/>
-      <c r="M433" s="31"/>
-      <c r="N433" s="31"/>
-      <c r="O433" s="31"/>
-      <c r="P433" s="31"/>
-      <c r="Q433" s="31"/>
-      <c r="R433" s="31"/>
-      <c r="S433" s="31"/>
-      <c r="T433" s="31"/>
-      <c r="U433" s="31"/>
-      <c r="V433" s="31"/>
-      <c r="W433" s="31"/>
-      <c r="X433" s="31"/>
-      <c r="Y433" s="31"/>
-      <c r="Z433" s="31"/>
-      <c r="AA433" s="31"/>
-      <c r="AB433" s="31"/>
-      <c r="AC433" s="31"/>
-      <c r="AD433" s="31"/>
-      <c r="AE433" s="32"/>
-    </row>
-    <row r="434" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B434" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C434" s="30"/>
-      <c r="D434" s="30"/>
-      <c r="E434" s="30"/>
-      <c r="F434" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G434" s="31"/>
-      <c r="H434" s="31"/>
-      <c r="I434" s="31"/>
-      <c r="J434" s="31"/>
-      <c r="K434" s="31"/>
-      <c r="L434" s="31"/>
-      <c r="M434" s="31"/>
-      <c r="N434" s="31"/>
-      <c r="O434" s="31"/>
-      <c r="P434" s="31"/>
-      <c r="Q434" s="31"/>
-      <c r="R434" s="31"/>
-      <c r="S434" s="31"/>
-      <c r="T434" s="31"/>
-      <c r="U434" s="31"/>
-      <c r="V434" s="31"/>
-      <c r="W434" s="31"/>
-      <c r="X434" s="31"/>
-      <c r="Y434" s="31"/>
-      <c r="Z434" s="31"/>
-      <c r="AA434" s="31"/>
-      <c r="AB434" s="31"/>
-      <c r="AC434" s="31"/>
-      <c r="AD434" s="31"/>
-      <c r="AE434" s="32"/>
-    </row>
-    <row r="435" spans="2:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B435" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C435" s="30"/>
-      <c r="D435" s="30"/>
-      <c r="E435" s="30"/>
-      <c r="F435" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="G435" s="31"/>
-      <c r="H435" s="31"/>
-      <c r="I435" s="31"/>
-      <c r="J435" s="31"/>
-      <c r="K435" s="31"/>
-      <c r="L435" s="31"/>
-      <c r="M435" s="31"/>
-      <c r="N435" s="31"/>
-      <c r="O435" s="31"/>
-      <c r="P435" s="31"/>
-      <c r="Q435" s="31"/>
-      <c r="R435" s="31"/>
-      <c r="S435" s="31"/>
-      <c r="T435" s="31"/>
-      <c r="U435" s="31"/>
-      <c r="V435" s="31"/>
-      <c r="W435" s="31"/>
-      <c r="X435" s="31"/>
-      <c r="Y435" s="31"/>
-      <c r="Z435" s="31"/>
-      <c r="AA435" s="31"/>
-      <c r="AB435" s="31"/>
-      <c r="AC435" s="31"/>
-      <c r="AD435" s="31"/>
-      <c r="AE435" s="32"/>
-    </row>
-    <row r="436" spans="2:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B436" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C436" s="30"/>
-      <c r="D436" s="30"/>
-      <c r="E436" s="30"/>
-      <c r="F436" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="G436" s="31"/>
-      <c r="H436" s="31"/>
-      <c r="I436" s="31"/>
-      <c r="J436" s="31"/>
-      <c r="K436" s="31"/>
-      <c r="L436" s="31"/>
-      <c r="M436" s="31"/>
-      <c r="N436" s="31"/>
-      <c r="O436" s="31"/>
-      <c r="P436" s="31"/>
-      <c r="Q436" s="31"/>
-      <c r="R436" s="31"/>
-      <c r="S436" s="31"/>
-      <c r="T436" s="31"/>
-      <c r="U436" s="31"/>
-      <c r="V436" s="31"/>
-      <c r="W436" s="31"/>
-      <c r="X436" s="31"/>
-      <c r="Y436" s="31"/>
-      <c r="Z436" s="31"/>
-      <c r="AA436" s="31"/>
-      <c r="AB436" s="31"/>
-      <c r="AC436" s="31"/>
-      <c r="AD436" s="31"/>
-      <c r="AE436" s="32"/>
-    </row>
-    <row r="437" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B437" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C437" s="24"/>
-      <c r="D437" s="24"/>
-      <c r="E437" s="25"/>
-      <c r="F437" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G437" s="27"/>
-      <c r="H437" s="27"/>
-      <c r="I437" s="27"/>
-      <c r="J437" s="27"/>
-      <c r="K437" s="27"/>
-      <c r="L437" s="27"/>
-      <c r="M437" s="27"/>
-      <c r="N437" s="27"/>
-      <c r="O437" s="27"/>
-      <c r="P437" s="27"/>
-      <c r="Q437" s="27"/>
-      <c r="R437" s="27"/>
-      <c r="S437" s="27"/>
-      <c r="T437" s="27"/>
-      <c r="U437" s="27"/>
-      <c r="V437" s="27"/>
-      <c r="W437" s="27"/>
-      <c r="X437" s="27"/>
-      <c r="Y437" s="27"/>
-      <c r="Z437" s="27"/>
-      <c r="AA437" s="27"/>
-      <c r="AB437" s="27"/>
-      <c r="AC437" s="27"/>
-      <c r="AD437" s="27"/>
-      <c r="AE437" s="28"/>
-    </row>
-    <row r="438" spans="2:31" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C438" s="20"/>
-      <c r="D438" s="20"/>
-      <c r="E438" s="20"/>
-      <c r="F438" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G438" s="21"/>
-      <c r="H438" s="21"/>
-      <c r="I438" s="21"/>
-      <c r="J438" s="21"/>
-      <c r="K438" s="21"/>
-      <c r="L438" s="21"/>
-      <c r="M438" s="21"/>
-      <c r="N438" s="21"/>
-      <c r="O438" s="21"/>
-      <c r="P438" s="21"/>
-      <c r="Q438" s="21"/>
-      <c r="R438" s="21"/>
-      <c r="S438" s="21"/>
-      <c r="T438" s="21"/>
-      <c r="U438" s="21"/>
-      <c r="V438" s="21"/>
-      <c r="W438" s="21"/>
-      <c r="X438" s="21"/>
-      <c r="Y438" s="21"/>
-      <c r="Z438" s="21"/>
-      <c r="AA438" s="21"/>
-      <c r="AB438" s="21"/>
-      <c r="AC438" s="21"/>
-      <c r="AD438" s="21"/>
-      <c r="AE438" s="22"/>
+      <c r="G438" s="53"/>
+      <c r="H438" s="53"/>
+      <c r="I438" s="53"/>
+      <c r="J438" s="53"/>
+      <c r="K438" s="53"/>
+      <c r="L438" s="53"/>
+      <c r="M438" s="53"/>
+      <c r="N438" s="53"/>
+      <c r="O438" s="53"/>
+      <c r="P438" s="53"/>
+      <c r="Q438" s="53"/>
+      <c r="R438" s="53"/>
+      <c r="S438" s="53"/>
+      <c r="T438" s="53"/>
+      <c r="U438" s="53"/>
+      <c r="V438" s="53"/>
+      <c r="W438" s="53"/>
+      <c r="X438" s="53"/>
+      <c r="Y438" s="53"/>
+      <c r="Z438" s="53"/>
+      <c r="AA438" s="53"/>
+      <c r="AB438" s="53"/>
+      <c r="AC438" s="53"/>
+      <c r="AD438" s="53"/>
+      <c r="AE438" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B86:AE86"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:AE16"/>
-    <mergeCell ref="I13:AE13"/>
-    <mergeCell ref="I15:AE15"/>
-    <mergeCell ref="I17:AE17"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B438:E438"/>
+    <mergeCell ref="F438:AE438"/>
+    <mergeCell ref="B437:E437"/>
+    <mergeCell ref="F437:AE437"/>
+    <mergeCell ref="B436:E436"/>
+    <mergeCell ref="B435:E435"/>
+    <mergeCell ref="B434:E434"/>
+    <mergeCell ref="F436:AE436"/>
+    <mergeCell ref="F435:AE435"/>
+    <mergeCell ref="F434:AE434"/>
+    <mergeCell ref="B431:E431"/>
+    <mergeCell ref="F431:AE431"/>
+    <mergeCell ref="F432:AE432"/>
+    <mergeCell ref="F433:AE433"/>
+    <mergeCell ref="B432:E432"/>
+    <mergeCell ref="B433:E433"/>
     <mergeCell ref="B87:AE87"/>
     <mergeCell ref="B4:AE4"/>
     <mergeCell ref="I18:AE18"/>
@@ -8975,22 +8985,15 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="I14:AE14"/>
-    <mergeCell ref="B431:E431"/>
-    <mergeCell ref="F431:AE431"/>
-    <mergeCell ref="F432:AE432"/>
-    <mergeCell ref="F433:AE433"/>
-    <mergeCell ref="B432:E432"/>
-    <mergeCell ref="B433:E433"/>
-    <mergeCell ref="B435:E435"/>
-    <mergeCell ref="B434:E434"/>
-    <mergeCell ref="F436:AE436"/>
-    <mergeCell ref="F435:AE435"/>
-    <mergeCell ref="F434:AE434"/>
-    <mergeCell ref="B438:E438"/>
-    <mergeCell ref="F438:AE438"/>
-    <mergeCell ref="B437:E437"/>
-    <mergeCell ref="F437:AE437"/>
-    <mergeCell ref="B436:E436"/>
+    <mergeCell ref="B86:AE86"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:AE16"/>
+    <mergeCell ref="I13:AE13"/>
+    <mergeCell ref="I15:AE15"/>
+    <mergeCell ref="I17:AE17"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
